--- a/public/uploads/GFMIS/2017-02-22.xlsx
+++ b/public/uploads/GFMIS/2017-02-22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\app1\public\uploads\GFMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$V$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="60">
   <si>
     <t>orden</t>
   </si>
@@ -616,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
-      <selection activeCell="A710" sqref="A710:T780"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -786,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -842,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -898,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1010,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1066,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1122,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1178,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1234,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1290,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>90</v>
@@ -1346,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1402,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1458,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1514,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1570,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>80</v>
@@ -1626,7 +1629,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1682,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1738,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="F20">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1794,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>80</v>
@@ -1850,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1906,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1962,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2018,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2074,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2130,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2186,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2242,7 +2245,7 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2298,7 +2301,7 @@
         <v>13</v>
       </c>
       <c r="F30">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2354,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="F31">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2410,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2466,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="F33">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>80</v>
@@ -2522,7 +2525,7 @@
         <v>16</v>
       </c>
       <c r="F34">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2578,7 +2581,7 @@
         <v>16</v>
       </c>
       <c r="F35">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>80</v>
@@ -2634,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -2690,7 +2693,7 @@
         <v>17</v>
       </c>
       <c r="F37">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2746,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="F38">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>80</v>
@@ -2802,7 +2805,7 @@
         <v>18</v>
       </c>
       <c r="F39">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2858,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="F40">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>80</v>
@@ -2914,7 +2917,7 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -2970,7 +2973,7 @@
         <v>19</v>
       </c>
       <c r="F42">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3026,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="F43">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3082,7 +3085,7 @@
         <v>21</v>
       </c>
       <c r="F44">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3138,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="F45">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -3194,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3250,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="F47">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3306,7 +3309,7 @@
         <v>23</v>
       </c>
       <c r="F48">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3362,7 +3365,7 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3418,7 +3421,7 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3474,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="F51">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3530,7 +3533,7 @@
         <v>26</v>
       </c>
       <c r="F52">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3586,7 +3589,7 @@
         <v>26</v>
       </c>
       <c r="F53">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -3642,7 +3645,7 @@
         <v>26</v>
       </c>
       <c r="F54">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>80</v>
@@ -3698,7 +3701,7 @@
         <v>27</v>
       </c>
       <c r="F55">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3754,7 +3757,7 @@
         <v>28</v>
       </c>
       <c r="F56">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3810,7 +3813,7 @@
         <v>28</v>
       </c>
       <c r="F57">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3866,7 +3869,7 @@
         <v>28</v>
       </c>
       <c r="F58">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3922,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="F59">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3978,7 +3981,7 @@
         <v>30</v>
       </c>
       <c r="F60">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -4034,7 +4037,7 @@
         <v>32</v>
       </c>
       <c r="F61">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -4090,7 +4093,7 @@
         <v>32</v>
       </c>
       <c r="F62">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>90</v>
@@ -4146,7 +4149,7 @@
         <v>33</v>
       </c>
       <c r="F63">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -4202,7 +4205,7 @@
         <v>33</v>
       </c>
       <c r="F64">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>90</v>
@@ -4258,7 +4261,7 @@
         <v>34</v>
       </c>
       <c r="F65">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -4314,7 +4317,7 @@
         <v>34</v>
       </c>
       <c r="F66">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -4370,7 +4373,7 @@
         <v>35</v>
       </c>
       <c r="F67">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -4426,7 +4429,7 @@
         <v>35</v>
       </c>
       <c r="F68">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -4482,7 +4485,7 @@
         <v>36</v>
       </c>
       <c r="F69">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -4538,7 +4541,7 @@
         <v>36</v>
       </c>
       <c r="F70">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>80</v>
@@ -4594,7 +4597,7 @@
         <v>36</v>
       </c>
       <c r="F71">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -4650,7 +4653,7 @@
         <v>37</v>
       </c>
       <c r="F72">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -4706,7 +4709,7 @@
         <v>37</v>
       </c>
       <c r="F73">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>80</v>
@@ -4762,7 +4765,7 @@
         <v>37</v>
       </c>
       <c r="F74">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -4818,7 +4821,7 @@
         <v>38</v>
       </c>
       <c r="F75">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4874,7 +4877,7 @@
         <v>38</v>
       </c>
       <c r="F76">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -4930,7 +4933,7 @@
         <v>38</v>
       </c>
       <c r="F77">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>80</v>
@@ -4986,7 +4989,7 @@
         <v>38</v>
       </c>
       <c r="F78">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -5042,7 +5045,7 @@
         <v>39</v>
       </c>
       <c r="F79">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -5098,7 +5101,7 @@
         <v>39</v>
       </c>
       <c r="F80">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>80</v>
@@ -5154,7 +5157,7 @@
         <v>39</v>
       </c>
       <c r="F81">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -5210,7 +5213,7 @@
         <v>39</v>
       </c>
       <c r="F82">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -5266,7 +5269,7 @@
         <v>40</v>
       </c>
       <c r="F83">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -5322,7 +5325,7 @@
         <v>40</v>
       </c>
       <c r="F84">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>80</v>
@@ -5378,7 +5381,7 @@
         <v>40</v>
       </c>
       <c r="F85">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5434,7 +5437,7 @@
         <v>40</v>
       </c>
       <c r="F86">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -5490,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="F87">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -5546,7 +5549,7 @@
         <v>41</v>
       </c>
       <c r="F88">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -5602,7 +5605,7 @@
         <v>41</v>
       </c>
       <c r="F89">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>80</v>
@@ -5658,7 +5661,7 @@
         <v>41</v>
       </c>
       <c r="F90">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -5714,7 +5717,7 @@
         <v>41</v>
       </c>
       <c r="F91">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -5770,7 +5773,7 @@
         <v>42</v>
       </c>
       <c r="F92">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -5826,7 +5829,7 @@
         <v>42</v>
       </c>
       <c r="F93">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -5882,7 +5885,7 @@
         <v>43</v>
       </c>
       <c r="F94">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -5938,7 +5941,7 @@
         <v>43</v>
       </c>
       <c r="F95">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -5994,7 +5997,7 @@
         <v>43</v>
       </c>
       <c r="F96">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -6050,7 +6053,7 @@
         <v>43</v>
       </c>
       <c r="F97">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -6106,7 +6109,7 @@
         <v>44</v>
       </c>
       <c r="F98">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -6162,7 +6165,7 @@
         <v>44</v>
       </c>
       <c r="F99">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -6218,7 +6221,7 @@
         <v>44</v>
       </c>
       <c r="F100">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -6274,7 +6277,7 @@
         <v>44</v>
       </c>
       <c r="F101">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -6330,7 +6333,7 @@
         <v>44</v>
       </c>
       <c r="F102">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -6386,7 +6389,7 @@
         <v>45</v>
       </c>
       <c r="F103">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -6442,7 +6445,7 @@
         <v>45</v>
       </c>
       <c r="F104">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -6498,7 +6501,7 @@
         <v>45</v>
       </c>
       <c r="F105">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -6554,7 +6557,7 @@
         <v>45</v>
       </c>
       <c r="F106">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -6610,7 +6613,7 @@
         <v>46</v>
       </c>
       <c r="F107">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6666,7 +6669,7 @@
         <v>47</v>
       </c>
       <c r="F108">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>3</v>
@@ -6722,7 +6725,7 @@
         <v>47</v>
       </c>
       <c r="F109">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>91</v>
@@ -6778,7 +6781,7 @@
         <v>47</v>
       </c>
       <c r="F110">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>80</v>
@@ -6834,7 +6837,7 @@
         <v>48</v>
       </c>
       <c r="F111">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -6890,7 +6893,7 @@
         <v>48</v>
       </c>
       <c r="F112">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>90</v>
@@ -6946,7 +6949,7 @@
         <v>49</v>
       </c>
       <c r="F113">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -7002,7 +7005,7 @@
         <v>49</v>
       </c>
       <c r="F114">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -7058,7 +7061,7 @@
         <v>50</v>
       </c>
       <c r="F115">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -7114,7 +7117,7 @@
         <v>50</v>
       </c>
       <c r="F116">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -7170,7 +7173,7 @@
         <v>50</v>
       </c>
       <c r="F117">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>90</v>
@@ -7226,7 +7229,7 @@
         <v>51</v>
       </c>
       <c r="F118">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -7282,7 +7285,7 @@
         <v>52</v>
       </c>
       <c r="F119">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -7338,7 +7341,7 @@
         <v>52</v>
       </c>
       <c r="F120">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -7394,7 +7397,7 @@
         <v>53</v>
       </c>
       <c r="F121">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7450,7 +7453,7 @@
         <v>53</v>
       </c>
       <c r="F122">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>90</v>
@@ -7506,7 +7509,7 @@
         <v>54</v>
       </c>
       <c r="F123">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7562,7 +7565,7 @@
         <v>54</v>
       </c>
       <c r="F124">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>90</v>
@@ -7618,7 +7621,7 @@
         <v>54</v>
       </c>
       <c r="F125">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -7674,7 +7677,7 @@
         <v>55</v>
       </c>
       <c r="F126">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -7730,7 +7733,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -7786,7 +7789,7 @@
         <v>55</v>
       </c>
       <c r="F128">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -7842,7 +7845,7 @@
         <v>55</v>
       </c>
       <c r="F129">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>5</v>
@@ -7898,7 +7901,7 @@
         <v>56</v>
       </c>
       <c r="F130">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -7954,7 +7957,7 @@
         <v>56</v>
       </c>
       <c r="F131">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -8010,7 +8013,7 @@
         <v>56</v>
       </c>
       <c r="F132">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -8066,7 +8069,7 @@
         <v>57</v>
       </c>
       <c r="F133">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -8122,7 +8125,7 @@
         <v>57</v>
       </c>
       <c r="F134">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -8178,7 +8181,7 @@
         <v>57</v>
       </c>
       <c r="F135">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -8234,7 +8237,7 @@
         <v>58</v>
       </c>
       <c r="F136">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -8290,7 +8293,7 @@
         <v>58</v>
       </c>
       <c r="F137">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -8346,7 +8349,7 @@
         <v>58</v>
       </c>
       <c r="F138">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -8402,7 +8405,7 @@
         <v>58</v>
       </c>
       <c r="F139">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <v>5</v>
@@ -8458,7 +8461,7 @@
         <v>58</v>
       </c>
       <c r="F140">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -8514,7 +8517,7 @@
         <v>59</v>
       </c>
       <c r="F141">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -8570,7 +8573,7 @@
         <v>59</v>
       </c>
       <c r="F142">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -8626,7 +8629,7 @@
         <v>59</v>
       </c>
       <c r="F143">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -8682,7 +8685,7 @@
         <v>60</v>
       </c>
       <c r="F144">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -8738,7 +8741,7 @@
         <v>60</v>
       </c>
       <c r="F145">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -8794,7 +8797,7 @@
         <v>60</v>
       </c>
       <c r="F146">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -8850,7 +8853,7 @@
         <v>61</v>
       </c>
       <c r="F147">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -8906,7 +8909,7 @@
         <v>61</v>
       </c>
       <c r="F148">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -8962,7 +8965,7 @@
         <v>62</v>
       </c>
       <c r="F149">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -9018,7 +9021,7 @@
         <v>62</v>
       </c>
       <c r="F150">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -9074,7 +9077,7 @@
         <v>63</v>
       </c>
       <c r="F151">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -9130,7 +9133,7 @@
         <v>63</v>
       </c>
       <c r="F152">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -9186,7 +9189,7 @@
         <v>64</v>
       </c>
       <c r="F153">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -9242,7 +9245,7 @@
         <v>64</v>
       </c>
       <c r="F154">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -9298,7 +9301,7 @@
         <v>64</v>
       </c>
       <c r="F155">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -9354,7 +9357,7 @@
         <v>65</v>
       </c>
       <c r="F156">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -9410,7 +9413,7 @@
         <v>66</v>
       </c>
       <c r="F157">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -9466,7 +9469,7 @@
         <v>66</v>
       </c>
       <c r="F158">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>90</v>
@@ -9522,7 +9525,7 @@
         <v>67</v>
       </c>
       <c r="F159">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -9578,7 +9581,7 @@
         <v>67</v>
       </c>
       <c r="F160">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -9634,7 +9637,7 @@
         <v>67</v>
       </c>
       <c r="F161">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -9690,7 +9693,7 @@
         <v>68</v>
       </c>
       <c r="F162">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -9746,7 +9749,7 @@
         <v>69</v>
       </c>
       <c r="F163">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -9802,7 +9805,7 @@
         <v>69</v>
       </c>
       <c r="F164">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -9858,7 +9861,7 @@
         <v>69</v>
       </c>
       <c r="F165">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -9914,7 +9917,7 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -9970,7 +9973,7 @@
         <v>70</v>
       </c>
       <c r="F167">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -10026,7 +10029,7 @@
         <v>70</v>
       </c>
       <c r="F168">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -10082,7 +10085,7 @@
         <v>71</v>
       </c>
       <c r="F169">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -10138,7 +10141,7 @@
         <v>71</v>
       </c>
       <c r="F170">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <v>4</v>
@@ -10194,7 +10197,7 @@
         <v>72</v>
       </c>
       <c r="F171">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -10250,7 +10253,7 @@
         <v>72</v>
       </c>
       <c r="F172">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G172">
         <v>80</v>
@@ -10306,7 +10309,7 @@
         <v>72</v>
       </c>
       <c r="F173">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -10362,7 +10365,7 @@
         <v>73</v>
       </c>
       <c r="F174">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -10418,7 +10421,7 @@
         <v>73</v>
       </c>
       <c r="F175">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -10474,7 +10477,7 @@
         <v>74</v>
       </c>
       <c r="F176">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -10530,7 +10533,7 @@
         <v>75</v>
       </c>
       <c r="F177">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -10586,7 +10589,7 @@
         <v>76</v>
       </c>
       <c r="F178">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -10642,7 +10645,7 @@
         <v>76</v>
       </c>
       <c r="F179">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -10698,7 +10701,7 @@
         <v>77</v>
       </c>
       <c r="F180">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -10754,7 +10757,7 @@
         <v>77</v>
       </c>
       <c r="F181">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -10810,7 +10813,7 @@
         <v>77</v>
       </c>
       <c r="F182">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G182">
         <v>80</v>
@@ -10866,7 +10869,7 @@
         <v>77</v>
       </c>
       <c r="F183">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -10922,7 +10925,7 @@
         <v>78</v>
       </c>
       <c r="F184">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -10978,7 +10981,7 @@
         <v>78</v>
       </c>
       <c r="F185">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -11034,7 +11037,7 @@
         <v>79</v>
       </c>
       <c r="F186">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -11090,7 +11093,7 @@
         <v>80</v>
       </c>
       <c r="F187">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -11146,7 +11149,7 @@
         <v>80</v>
       </c>
       <c r="F188">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>90</v>
@@ -11202,7 +11205,7 @@
         <v>81</v>
       </c>
       <c r="F189">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -11258,7 +11261,7 @@
         <v>81</v>
       </c>
       <c r="F190">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <v>90</v>
@@ -11314,7 +11317,7 @@
         <v>81</v>
       </c>
       <c r="F191">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>8</v>
@@ -11370,7 +11373,7 @@
         <v>82</v>
       </c>
       <c r="F192">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -11426,7 +11429,7 @@
         <v>82</v>
       </c>
       <c r="F193">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -11482,7 +11485,7 @@
         <v>83</v>
       </c>
       <c r="F194">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -11538,7 +11541,7 @@
         <v>84</v>
       </c>
       <c r="F195">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -11594,7 +11597,7 @@
         <v>85</v>
       </c>
       <c r="F196">
-        <v>2006</v>
+        <v>3</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -11650,7 +11653,7 @@
         <v>85</v>
       </c>
       <c r="F197">
-        <v>2006</v>
+        <v>4</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -11706,7 +11709,7 @@
         <v>85</v>
       </c>
       <c r="F198">
-        <v>2006</v>
+        <v>5</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -11762,7 +11765,7 @@
         <v>85</v>
       </c>
       <c r="F199">
-        <v>2006</v>
+        <v>6</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -11818,7 +11821,7 @@
         <v>85</v>
       </c>
       <c r="F200">
-        <v>2006</v>
+        <v>7</v>
       </c>
       <c r="G200">
         <v>90</v>
@@ -11874,7 +11877,7 @@
         <v>85</v>
       </c>
       <c r="F201">
-        <v>2006</v>
+        <v>8</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -11930,7 +11933,7 @@
         <v>85</v>
       </c>
       <c r="F202">
-        <v>2006</v>
+        <v>9</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -11986,7 +11989,7 @@
         <v>86</v>
       </c>
       <c r="F203">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -12042,7 +12045,7 @@
         <v>86</v>
       </c>
       <c r="F204">
-        <v>2004</v>
+        <v>3</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -12098,7 +12101,7 @@
         <v>86</v>
       </c>
       <c r="F205">
-        <v>2004</v>
+        <v>5</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -12154,7 +12157,7 @@
         <v>86</v>
       </c>
       <c r="F206">
-        <v>2004</v>
+        <v>4</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -12210,7 +12213,7 @@
         <v>86</v>
       </c>
       <c r="F207">
-        <v>2004</v>
+        <v>5</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -12266,7 +12269,7 @@
         <v>86</v>
       </c>
       <c r="F208">
-        <v>2005</v>
+        <v>2</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -12322,7 +12325,7 @@
         <v>86</v>
       </c>
       <c r="F209">
-        <v>2005</v>
+        <v>5</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -12378,7 +12381,7 @@
         <v>86</v>
       </c>
       <c r="F210">
-        <v>2005</v>
+        <v>6</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -12434,7 +12437,7 @@
         <v>86</v>
       </c>
       <c r="F211">
-        <v>2005</v>
+        <v>6</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -12490,7 +12493,7 @@
         <v>86</v>
       </c>
       <c r="F212">
-        <v>2005</v>
+        <v>8</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -12546,7 +12549,7 @@
         <v>86</v>
       </c>
       <c r="F213">
-        <v>2005</v>
+        <v>8</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -12602,7 +12605,7 @@
         <v>86</v>
       </c>
       <c r="F214">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="G214">
         <v>4</v>
@@ -12658,7 +12661,7 @@
         <v>87</v>
       </c>
       <c r="F215">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -12714,7 +12717,7 @@
         <v>88</v>
       </c>
       <c r="F216">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -12770,7 +12773,7 @@
         <v>88</v>
       </c>
       <c r="F217">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -12826,7 +12829,7 @@
         <v>88</v>
       </c>
       <c r="F218">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <v>80</v>
@@ -12882,7 +12885,7 @@
         <v>88</v>
       </c>
       <c r="F219">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>80</v>
@@ -12938,7 +12941,7 @@
         <v>88</v>
       </c>
       <c r="F220">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G220">
         <v>90</v>
@@ -12994,7 +12997,7 @@
         <v>89</v>
       </c>
       <c r="F221">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -13050,7 +13053,7 @@
         <v>93</v>
       </c>
       <c r="F222">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -13106,7 +13109,7 @@
         <v>93</v>
       </c>
       <c r="F223">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -13162,7 +13165,7 @@
         <v>94</v>
       </c>
       <c r="F224">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -13218,7 +13221,7 @@
         <v>94</v>
       </c>
       <c r="F225">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -13274,7 +13277,7 @@
         <v>95</v>
       </c>
       <c r="F226">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -13330,7 +13333,7 @@
         <v>96</v>
       </c>
       <c r="F227">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G227">
         <v>2</v>
@@ -13386,7 +13389,7 @@
         <v>97</v>
       </c>
       <c r="F228">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -13442,7 +13445,7 @@
         <v>97</v>
       </c>
       <c r="F229">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <v>90</v>
@@ -13498,7 +13501,7 @@
         <v>98</v>
       </c>
       <c r="F230">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -13554,7 +13557,7 @@
         <v>98</v>
       </c>
       <c r="F231">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -13610,7 +13613,7 @@
         <v>98</v>
       </c>
       <c r="F232">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -13666,7 +13669,7 @@
         <v>99</v>
       </c>
       <c r="F233">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -13722,7 +13725,7 @@
         <v>99</v>
       </c>
       <c r="F234">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -13778,7 +13781,7 @@
         <v>99</v>
       </c>
       <c r="F235">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -13834,7 +13837,7 @@
         <v>100</v>
       </c>
       <c r="F236">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -13890,7 +13893,7 @@
         <v>101</v>
       </c>
       <c r="F237">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -13946,7 +13949,7 @@
         <v>101</v>
       </c>
       <c r="F238">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G238">
         <v>80</v>
@@ -14002,7 +14005,7 @@
         <v>101</v>
       </c>
       <c r="F239">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -14058,7 +14061,7 @@
         <v>102</v>
       </c>
       <c r="F240">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -14114,7 +14117,7 @@
         <v>102</v>
       </c>
       <c r="F241">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -14170,7 +14173,7 @@
         <v>102</v>
       </c>
       <c r="F242">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -14226,7 +14229,7 @@
         <v>103</v>
       </c>
       <c r="F243">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -14282,7 +14285,7 @@
         <v>104</v>
       </c>
       <c r="F244">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -14338,7 +14341,7 @@
         <v>104</v>
       </c>
       <c r="F245">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G245">
         <v>4</v>
@@ -14394,7 +14397,7 @@
         <v>105</v>
       </c>
       <c r="F246">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -14450,7 +14453,7 @@
         <v>106</v>
       </c>
       <c r="F247">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -14506,7 +14509,7 @@
         <v>107</v>
       </c>
       <c r="F248">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -14562,7 +14565,7 @@
         <v>107</v>
       </c>
       <c r="F249">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -14618,7 +14621,7 @@
         <v>108</v>
       </c>
       <c r="F250">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -14674,7 +14677,7 @@
         <v>109</v>
       </c>
       <c r="F251">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -14730,7 +14733,7 @@
         <v>109</v>
       </c>
       <c r="F252">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -14786,7 +14789,7 @@
         <v>110</v>
       </c>
       <c r="F253">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -14842,7 +14845,7 @@
         <v>110</v>
       </c>
       <c r="F254">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -14898,7 +14901,7 @@
         <v>112</v>
       </c>
       <c r="F255">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -14954,7 +14957,7 @@
         <v>112</v>
       </c>
       <c r="F256">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -15010,7 +15013,7 @@
         <v>112</v>
       </c>
       <c r="F257">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G257">
         <v>80</v>
@@ -15066,7 +15069,7 @@
         <v>113</v>
       </c>
       <c r="F258">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -15122,7 +15125,7 @@
         <v>114</v>
       </c>
       <c r="F259">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -15178,7 +15181,7 @@
         <v>114</v>
       </c>
       <c r="F260">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -15234,7 +15237,7 @@
         <v>114</v>
       </c>
       <c r="F261">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G261">
         <v>3</v>
@@ -15290,7 +15293,7 @@
         <v>115</v>
       </c>
       <c r="F262">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -15346,7 +15349,7 @@
         <v>116</v>
       </c>
       <c r="F263">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -15402,7 +15405,7 @@
         <v>117</v>
       </c>
       <c r="F264">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -15458,7 +15461,7 @@
         <v>117</v>
       </c>
       <c r="F265">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -15514,7 +15517,7 @@
         <v>119</v>
       </c>
       <c r="F266">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -15570,7 +15573,7 @@
         <v>120</v>
       </c>
       <c r="F267">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -15626,7 +15629,7 @@
         <v>121</v>
       </c>
       <c r="F268">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -15682,7 +15685,7 @@
         <v>122</v>
       </c>
       <c r="F269">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -15738,7 +15741,7 @@
         <v>122</v>
       </c>
       <c r="F270">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -15794,7 +15797,7 @@
         <v>123</v>
       </c>
       <c r="F271">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -15850,7 +15853,7 @@
         <v>124</v>
       </c>
       <c r="F272">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -15906,7 +15909,7 @@
         <v>124</v>
       </c>
       <c r="F273">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -15962,7 +15965,7 @@
         <v>125</v>
       </c>
       <c r="F274">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -16018,7 +16021,7 @@
         <v>125</v>
       </c>
       <c r="F275">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -16074,7 +16077,7 @@
         <v>125</v>
       </c>
       <c r="F276">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -16130,7 +16133,7 @@
         <v>125</v>
       </c>
       <c r="F277">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G277">
         <v>4</v>
@@ -16186,7 +16189,7 @@
         <v>125</v>
       </c>
       <c r="F278">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G278">
         <v>5</v>
@@ -16242,7 +16245,7 @@
         <v>126</v>
       </c>
       <c r="F279">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -16268,8 +16271,8 @@
       <c r="N279" s="9">
         <v>39728</v>
       </c>
-      <c r="O279" s="1">
-        <v>0</v>
+      <c r="O279" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="Q279" s="9">
         <v>42632</v>
@@ -16298,7 +16301,7 @@
         <v>126</v>
       </c>
       <c r="F280">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G280">
         <v>2</v>
@@ -16354,7 +16357,7 @@
         <v>127</v>
       </c>
       <c r="F281">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -16410,7 +16413,7 @@
         <v>128</v>
       </c>
       <c r="F282">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -16466,7 +16469,7 @@
         <v>128</v>
       </c>
       <c r="F283">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -16522,7 +16525,7 @@
         <v>129</v>
       </c>
       <c r="F284">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -16578,7 +16581,7 @@
         <v>129</v>
       </c>
       <c r="F285">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G285">
         <v>6</v>
@@ -16634,7 +16637,7 @@
         <v>130</v>
       </c>
       <c r="F286">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -16690,7 +16693,7 @@
         <v>131</v>
       </c>
       <c r="F287">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -16746,7 +16749,7 @@
         <v>131</v>
       </c>
       <c r="F288">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -16802,7 +16805,7 @@
         <v>132</v>
       </c>
       <c r="F289">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -16858,7 +16861,7 @@
         <v>132</v>
       </c>
       <c r="F290">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G290">
         <v>90</v>
@@ -16914,7 +16917,7 @@
         <v>133</v>
       </c>
       <c r="F291">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -16970,7 +16973,7 @@
         <v>133</v>
       </c>
       <c r="F292">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G292">
         <v>90</v>
@@ -17026,7 +17029,7 @@
         <v>134</v>
       </c>
       <c r="F293">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -17082,7 +17085,7 @@
         <v>134</v>
       </c>
       <c r="F294">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -17138,7 +17141,7 @@
         <v>134</v>
       </c>
       <c r="F295">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G295">
         <v>3</v>
@@ -17194,7 +17197,7 @@
         <v>134</v>
       </c>
       <c r="F296">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G296">
         <v>4</v>
@@ -17250,7 +17253,7 @@
         <v>134</v>
       </c>
       <c r="F297">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G297">
         <v>5</v>
@@ -17306,7 +17309,7 @@
         <v>135</v>
       </c>
       <c r="F298">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -17362,7 +17365,7 @@
         <v>135</v>
       </c>
       <c r="F299">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G299">
         <v>80</v>
@@ -17418,7 +17421,7 @@
         <v>135</v>
       </c>
       <c r="F300">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -17474,7 +17477,7 @@
         <v>136</v>
       </c>
       <c r="F301">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -17530,7 +17533,7 @@
         <v>137</v>
       </c>
       <c r="F302">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -17586,7 +17589,7 @@
         <v>137</v>
       </c>
       <c r="F303">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G303">
         <v>2</v>
@@ -17642,7 +17645,7 @@
         <v>138</v>
       </c>
       <c r="F304">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -17698,7 +17701,7 @@
         <v>138</v>
       </c>
       <c r="F305">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -17754,7 +17757,7 @@
         <v>139</v>
       </c>
       <c r="F306">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -17810,7 +17813,7 @@
         <v>139</v>
       </c>
       <c r="F307">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G307">
         <v>2</v>
@@ -17866,7 +17869,7 @@
         <v>139</v>
       </c>
       <c r="F308">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G308">
         <v>3</v>
@@ -17922,7 +17925,7 @@
         <v>140</v>
       </c>
       <c r="F309">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -17978,7 +17981,7 @@
         <v>140</v>
       </c>
       <c r="F310">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G310">
         <v>2</v>
@@ -18034,7 +18037,7 @@
         <v>140</v>
       </c>
       <c r="F311">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G311">
         <v>3</v>
@@ -18090,7 +18093,7 @@
         <v>141</v>
       </c>
       <c r="F312">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -18146,7 +18149,7 @@
         <v>142</v>
       </c>
       <c r="F313">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -18202,7 +18205,7 @@
         <v>143</v>
       </c>
       <c r="F314">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -18258,7 +18261,7 @@
         <v>144</v>
       </c>
       <c r="F315">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -18314,7 +18317,7 @@
         <v>144</v>
       </c>
       <c r="F316">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G316">
         <v>2</v>
@@ -18370,7 +18373,7 @@
         <v>145</v>
       </c>
       <c r="F317">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -18426,7 +18429,7 @@
         <v>145</v>
       </c>
       <c r="F318">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G318">
         <v>2</v>
@@ -18482,7 +18485,7 @@
         <v>147</v>
       </c>
       <c r="F319">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -18538,7 +18541,7 @@
         <v>147</v>
       </c>
       <c r="F320">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G320">
         <v>2</v>
@@ -18594,7 +18597,7 @@
         <v>148</v>
       </c>
       <c r="F321">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -18650,7 +18653,7 @@
         <v>148</v>
       </c>
       <c r="F322">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -18706,7 +18709,7 @@
         <v>148</v>
       </c>
       <c r="F323">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G323">
         <v>3</v>
@@ -18762,7 +18765,7 @@
         <v>149</v>
       </c>
       <c r="F324">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -18818,7 +18821,7 @@
         <v>150</v>
       </c>
       <c r="F325">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -18874,7 +18877,7 @@
         <v>150</v>
       </c>
       <c r="F326">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G326">
         <v>2</v>
@@ -18930,7 +18933,7 @@
         <v>151</v>
       </c>
       <c r="F327">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -18986,7 +18989,7 @@
         <v>152</v>
       </c>
       <c r="F328">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G328">
         <v>1</v>
@@ -19042,7 +19045,7 @@
         <v>152</v>
       </c>
       <c r="F329">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G329">
         <v>2</v>
@@ -19098,7 +19101,7 @@
         <v>153</v>
       </c>
       <c r="F330">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -19154,7 +19157,7 @@
         <v>153</v>
       </c>
       <c r="F331">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G331">
         <v>3</v>
@@ -19210,7 +19213,7 @@
         <v>154</v>
       </c>
       <c r="F332">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -19266,7 +19269,7 @@
         <v>155</v>
       </c>
       <c r="F333">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -19322,7 +19325,7 @@
         <v>156</v>
       </c>
       <c r="F334">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G334">
         <v>1</v>
@@ -19378,7 +19381,7 @@
         <v>157</v>
       </c>
       <c r="F335">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -19434,7 +19437,7 @@
         <v>157</v>
       </c>
       <c r="F336">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G336">
         <v>2</v>
@@ -19490,7 +19493,7 @@
         <v>158</v>
       </c>
       <c r="F337">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -19546,7 +19549,7 @@
         <v>159</v>
       </c>
       <c r="F338">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -19602,7 +19605,7 @@
         <v>160</v>
       </c>
       <c r="F339">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G339">
         <v>1</v>
@@ -19658,7 +19661,7 @@
         <v>160</v>
       </c>
       <c r="F340">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G340">
         <v>2</v>
@@ -19714,7 +19717,7 @@
         <v>160</v>
       </c>
       <c r="F341">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G341">
         <v>3</v>
@@ -19770,7 +19773,7 @@
         <v>160</v>
       </c>
       <c r="F342">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G342">
         <v>4</v>
@@ -19826,7 +19829,7 @@
         <v>160</v>
       </c>
       <c r="F343">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G343">
         <v>5</v>
@@ -19882,7 +19885,7 @@
         <v>160</v>
       </c>
       <c r="F344">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G344">
         <v>6</v>
@@ -19938,7 +19941,7 @@
         <v>161</v>
       </c>
       <c r="F345">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G345">
         <v>1</v>
@@ -19994,7 +19997,7 @@
         <v>162</v>
       </c>
       <c r="F346">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G346">
         <v>1</v>
@@ -20050,7 +20053,7 @@
         <v>162</v>
       </c>
       <c r="F347">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G347">
         <v>2</v>
@@ -20106,7 +20109,7 @@
         <v>163</v>
       </c>
       <c r="F348">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G348">
         <v>1</v>
@@ -20162,7 +20165,7 @@
         <v>163</v>
       </c>
       <c r="F349">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -20218,7 +20221,7 @@
         <v>164</v>
       </c>
       <c r="F350">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G350">
         <v>1</v>
@@ -20274,7 +20277,7 @@
         <v>165</v>
       </c>
       <c r="F351">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G351">
         <v>1</v>
@@ -20330,7 +20333,7 @@
         <v>166</v>
       </c>
       <c r="F352">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G352">
         <v>1</v>
@@ -20386,7 +20389,7 @@
         <v>167</v>
       </c>
       <c r="F353">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -20442,7 +20445,7 @@
         <v>167</v>
       </c>
       <c r="F354">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G354">
         <v>6</v>
@@ -20498,7 +20501,7 @@
         <v>168</v>
       </c>
       <c r="F355">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -20554,7 +20557,7 @@
         <v>168</v>
       </c>
       <c r="F356">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G356">
         <v>90</v>
@@ -20610,7 +20613,7 @@
         <v>169</v>
       </c>
       <c r="F357">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G357">
         <v>1</v>
@@ -20666,7 +20669,7 @@
         <v>170</v>
       </c>
       <c r="F358">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G358">
         <v>1</v>
@@ -20722,7 +20725,7 @@
         <v>170</v>
       </c>
       <c r="F359">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G359">
         <v>4</v>
@@ -20778,7 +20781,7 @@
         <v>171</v>
       </c>
       <c r="F360">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -20834,7 +20837,7 @@
         <v>172</v>
       </c>
       <c r="F361">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G361">
         <v>1</v>
@@ -20890,7 +20893,7 @@
         <v>173</v>
       </c>
       <c r="F362">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G362">
         <v>1</v>
@@ -20946,7 +20949,7 @@
         <v>174</v>
       </c>
       <c r="F363">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G363">
         <v>1</v>
@@ -21002,7 +21005,7 @@
         <v>175</v>
       </c>
       <c r="F364">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G364">
         <v>1</v>
@@ -21058,7 +21061,7 @@
         <v>175</v>
       </c>
       <c r="F365">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G365">
         <v>2</v>
@@ -21114,7 +21117,7 @@
         <v>176</v>
       </c>
       <c r="F366">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G366">
         <v>1</v>
@@ -21170,7 +21173,7 @@
         <v>176</v>
       </c>
       <c r="F367">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G367">
         <v>2</v>
@@ -21226,7 +21229,7 @@
         <v>177</v>
       </c>
       <c r="F368">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G368">
         <v>1</v>
@@ -21282,7 +21285,7 @@
         <v>177</v>
       </c>
       <c r="F369">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G369">
         <v>2</v>
@@ -21338,7 +21341,7 @@
         <v>178</v>
       </c>
       <c r="F370">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G370">
         <v>1</v>
@@ -21394,7 +21397,7 @@
         <v>179</v>
       </c>
       <c r="F371">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G371">
         <v>1</v>
@@ -21450,7 +21453,7 @@
         <v>180</v>
       </c>
       <c r="F372">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -21506,7 +21509,7 @@
         <v>180</v>
       </c>
       <c r="F373">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G373">
         <v>2</v>
@@ -21562,7 +21565,7 @@
         <v>181</v>
       </c>
       <c r="F374">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G374">
         <v>1</v>
@@ -21618,7 +21621,7 @@
         <v>182</v>
       </c>
       <c r="F375">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G375">
         <v>1</v>
@@ -21674,7 +21677,7 @@
         <v>183</v>
       </c>
       <c r="F376">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G376">
         <v>1</v>
@@ -21730,7 +21733,7 @@
         <v>184</v>
       </c>
       <c r="F377">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G377">
         <v>1</v>
@@ -21786,7 +21789,7 @@
         <v>185</v>
       </c>
       <c r="F378">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G378">
         <v>1</v>
@@ -21842,7 +21845,7 @@
         <v>186</v>
       </c>
       <c r="F379">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G379">
         <v>1</v>
@@ -21898,7 +21901,7 @@
         <v>187</v>
       </c>
       <c r="F380">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -21954,7 +21957,7 @@
         <v>187</v>
       </c>
       <c r="F381">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G381">
         <v>2</v>
@@ -22010,7 +22013,7 @@
         <v>188</v>
       </c>
       <c r="F382">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G382">
         <v>1</v>
@@ -22066,7 +22069,7 @@
         <v>189</v>
       </c>
       <c r="F383">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G383">
         <v>1</v>
@@ -22122,7 +22125,7 @@
         <v>189</v>
       </c>
       <c r="F384">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G384">
         <v>90</v>
@@ -22178,7 +22181,7 @@
         <v>190</v>
       </c>
       <c r="F385">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G385">
         <v>1</v>
@@ -22234,7 +22237,7 @@
         <v>191</v>
       </c>
       <c r="F386">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G386">
         <v>1</v>
@@ -22290,7 +22293,7 @@
         <v>192</v>
       </c>
       <c r="F387">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -22346,7 +22349,7 @@
         <v>193</v>
       </c>
       <c r="F388">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G388">
         <v>1</v>
@@ -22402,7 +22405,7 @@
         <v>194</v>
       </c>
       <c r="F389">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -22458,7 +22461,7 @@
         <v>195</v>
       </c>
       <c r="F390">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G390">
         <v>1</v>
@@ -22514,7 +22517,7 @@
         <v>196</v>
       </c>
       <c r="F391">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -22570,7 +22573,7 @@
         <v>196</v>
       </c>
       <c r="F392">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G392">
         <v>2</v>
@@ -22626,7 +22629,7 @@
         <v>197</v>
       </c>
       <c r="F393">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -22682,7 +22685,7 @@
         <v>198</v>
       </c>
       <c r="F394">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G394">
         <v>1</v>
@@ -22738,7 +22741,7 @@
         <v>199</v>
       </c>
       <c r="F395">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G395">
         <v>1</v>
@@ -22794,7 +22797,7 @@
         <v>199</v>
       </c>
       <c r="F396">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G396">
         <v>2</v>
@@ -22850,7 +22853,7 @@
         <v>200</v>
       </c>
       <c r="F397">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -22906,7 +22909,7 @@
         <v>200</v>
       </c>
       <c r="F398">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G398">
         <v>90</v>
@@ -22962,7 +22965,7 @@
         <v>201</v>
       </c>
       <c r="F399">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -23018,7 +23021,7 @@
         <v>201</v>
       </c>
       <c r="F400">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G400">
         <v>80</v>
@@ -23074,7 +23077,7 @@
         <v>202</v>
       </c>
       <c r="F401">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G401">
         <v>1</v>
@@ -23130,7 +23133,7 @@
         <v>202</v>
       </c>
       <c r="F402">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G402">
         <v>90</v>
@@ -23186,7 +23189,7 @@
         <v>203</v>
       </c>
       <c r="F403">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G403">
         <v>1</v>
@@ -23242,7 +23245,7 @@
         <v>203</v>
       </c>
       <c r="F404">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G404">
         <v>90</v>
@@ -23298,7 +23301,7 @@
         <v>204</v>
       </c>
       <c r="F405">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -23354,7 +23357,7 @@
         <v>204</v>
       </c>
       <c r="F406">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G406">
         <v>90</v>
@@ -23410,7 +23413,7 @@
         <v>205</v>
       </c>
       <c r="F407">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G407">
         <v>1</v>
@@ -23466,7 +23469,7 @@
         <v>206</v>
       </c>
       <c r="F408">
-        <v>2005</v>
+        <v>1</v>
       </c>
       <c r="G408">
         <v>7</v>
@@ -23522,7 +23525,7 @@
         <v>206</v>
       </c>
       <c r="F409">
-        <v>2005</v>
+        <v>1</v>
       </c>
       <c r="G409">
         <v>6</v>
@@ -23578,7 +23581,7 @@
         <v>206</v>
       </c>
       <c r="F410">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G410">
         <v>5</v>
@@ -23634,7 +23637,7 @@
         <v>206</v>
       </c>
       <c r="F411">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G411">
         <v>4</v>
@@ -23690,7 +23693,7 @@
         <v>206</v>
       </c>
       <c r="F412">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G412">
         <v>3</v>
@@ -23746,7 +23749,7 @@
         <v>206</v>
       </c>
       <c r="F413">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G413">
         <v>2</v>
@@ -23802,7 +23805,7 @@
         <v>206</v>
       </c>
       <c r="F414">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G414">
         <v>1</v>
@@ -23858,7 +23861,7 @@
         <v>206</v>
       </c>
       <c r="F415">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -23914,7 +23917,7 @@
         <v>207</v>
       </c>
       <c r="F416">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G416">
         <v>1</v>
@@ -23970,7 +23973,7 @@
         <v>208</v>
       </c>
       <c r="F417">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G417">
         <v>1</v>
@@ -24026,7 +24029,7 @@
         <v>209</v>
       </c>
       <c r="F418">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G418">
         <v>1</v>
@@ -24082,7 +24085,7 @@
         <v>210</v>
       </c>
       <c r="F419">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G419">
         <v>1</v>
@@ -24138,7 +24141,7 @@
         <v>211</v>
       </c>
       <c r="F420">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G420">
         <v>1</v>
@@ -24194,7 +24197,7 @@
         <v>211</v>
       </c>
       <c r="F421">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G421">
         <v>90</v>
@@ -24250,7 +24253,7 @@
         <v>212</v>
       </c>
       <c r="F422">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G422">
         <v>1</v>
@@ -24306,7 +24309,7 @@
         <v>213</v>
       </c>
       <c r="F423">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G423">
         <v>2</v>
@@ -24362,7 +24365,7 @@
         <v>214</v>
       </c>
       <c r="F424">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G424">
         <v>1</v>
@@ -24418,7 +24421,7 @@
         <v>215</v>
       </c>
       <c r="F425">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -24474,7 +24477,7 @@
         <v>216</v>
       </c>
       <c r="F426">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G426">
         <v>1</v>
@@ -24530,7 +24533,7 @@
         <v>217</v>
       </c>
       <c r="F427">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -24586,7 +24589,7 @@
         <v>217</v>
       </c>
       <c r="F428">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G428">
         <v>3</v>
@@ -24642,7 +24645,7 @@
         <v>218</v>
       </c>
       <c r="F429">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G429">
         <v>1</v>
@@ -24698,7 +24701,7 @@
         <v>218</v>
       </c>
       <c r="F430">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G430">
         <v>3</v>
@@ -24754,7 +24757,7 @@
         <v>219</v>
       </c>
       <c r="F431">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G431">
         <v>1</v>
@@ -24810,7 +24813,7 @@
         <v>219</v>
       </c>
       <c r="F432">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G432">
         <v>5</v>
@@ -24866,7 +24869,7 @@
         <v>220</v>
       </c>
       <c r="F433">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G433">
         <v>1</v>
@@ -24922,7 +24925,7 @@
         <v>220</v>
       </c>
       <c r="F434">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G434">
         <v>2</v>
@@ -24978,7 +24981,7 @@
         <v>220</v>
       </c>
       <c r="F435">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G435">
         <v>5</v>
@@ -25034,7 +25037,7 @@
         <v>221</v>
       </c>
       <c r="F436">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G436">
         <v>1</v>
@@ -25090,7 +25093,7 @@
         <v>222</v>
       </c>
       <c r="F437">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -25146,7 +25149,7 @@
         <v>223</v>
       </c>
       <c r="F438">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -25202,7 +25205,7 @@
         <v>224</v>
       </c>
       <c r="F439">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G439">
         <v>1</v>
@@ -25258,7 +25261,7 @@
         <v>224</v>
       </c>
       <c r="F440">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G440">
         <v>2</v>
@@ -25314,7 +25317,7 @@
         <v>225</v>
       </c>
       <c r="F441">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G441">
         <v>1</v>
@@ -25370,7 +25373,7 @@
         <v>226</v>
       </c>
       <c r="F442">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -25426,7 +25429,7 @@
         <v>227</v>
       </c>
       <c r="F443">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -25482,7 +25485,7 @@
         <v>228</v>
       </c>
       <c r="F444">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G444">
         <v>1</v>
@@ -25538,7 +25541,7 @@
         <v>228</v>
       </c>
       <c r="F445">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G445">
         <v>2</v>
@@ -25594,7 +25597,7 @@
         <v>229</v>
       </c>
       <c r="F446">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G446">
         <v>1</v>
@@ -25650,7 +25653,7 @@
         <v>229</v>
       </c>
       <c r="F447">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G447">
         <v>2</v>
@@ -25706,7 +25709,7 @@
         <v>230</v>
       </c>
       <c r="F448">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G448">
         <v>1</v>
@@ -25762,7 +25765,7 @@
         <v>231</v>
       </c>
       <c r="F449">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G449">
         <v>1</v>
@@ -25818,7 +25821,7 @@
         <v>231</v>
       </c>
       <c r="F450">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G450">
         <v>4</v>
@@ -25874,7 +25877,7 @@
         <v>232</v>
       </c>
       <c r="F451">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G451">
         <v>1</v>
@@ -25930,7 +25933,7 @@
         <v>233</v>
       </c>
       <c r="F452">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G452">
         <v>1</v>
@@ -25986,7 +25989,7 @@
         <v>234</v>
       </c>
       <c r="F453">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G453">
         <v>1</v>
@@ -26042,7 +26045,7 @@
         <v>235</v>
       </c>
       <c r="F454">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G454">
         <v>1</v>
@@ -26098,7 +26101,7 @@
         <v>236</v>
       </c>
       <c r="F455">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G455">
         <v>1</v>
@@ -26154,7 +26157,7 @@
         <v>237</v>
       </c>
       <c r="F456">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G456">
         <v>1</v>
@@ -26210,7 +26213,7 @@
         <v>237</v>
       </c>
       <c r="F457">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G457">
         <v>2</v>
@@ -26266,7 +26269,7 @@
         <v>237</v>
       </c>
       <c r="F458">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G458">
         <v>3</v>
@@ -26322,7 +26325,7 @@
         <v>237</v>
       </c>
       <c r="F459">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G459">
         <v>4</v>
@@ -26378,7 +26381,7 @@
         <v>237</v>
       </c>
       <c r="F460">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G460">
         <v>5</v>
@@ -26434,7 +26437,7 @@
         <v>238</v>
       </c>
       <c r="F461">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G461">
         <v>1</v>
@@ -26490,7 +26493,7 @@
         <v>239</v>
       </c>
       <c r="F462">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G462">
         <v>1</v>
@@ -26546,7 +26549,7 @@
         <v>240</v>
       </c>
       <c r="F463">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G463">
         <v>1</v>
@@ -26602,7 +26605,7 @@
         <v>240</v>
       </c>
       <c r="F464">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G464">
         <v>2</v>
@@ -26658,7 +26661,7 @@
         <v>241</v>
       </c>
       <c r="F465">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G465">
         <v>1</v>
@@ -26714,7 +26717,7 @@
         <v>242</v>
       </c>
       <c r="F466">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G466">
         <v>1</v>
@@ -26770,7 +26773,7 @@
         <v>243</v>
       </c>
       <c r="F467">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G467">
         <v>1</v>
@@ -26826,7 +26829,7 @@
         <v>244</v>
       </c>
       <c r="F468">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G468">
         <v>1</v>
@@ -26882,7 +26885,7 @@
         <v>245</v>
       </c>
       <c r="F469">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G469">
         <v>1</v>
@@ -26938,7 +26941,7 @@
         <v>246</v>
       </c>
       <c r="F470">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G470">
         <v>1</v>
@@ -26994,7 +26997,7 @@
         <v>247</v>
       </c>
       <c r="F471">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G471">
         <v>1</v>
@@ -27050,7 +27053,7 @@
         <v>248</v>
       </c>
       <c r="F472">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G472">
         <v>1</v>
@@ -27106,7 +27109,7 @@
         <v>249</v>
       </c>
       <c r="F473">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G473">
         <v>1</v>
@@ -27162,7 +27165,7 @@
         <v>249</v>
       </c>
       <c r="F474">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G474">
         <v>2</v>
@@ -27218,7 +27221,7 @@
         <v>250</v>
       </c>
       <c r="F475">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G475">
         <v>1</v>
@@ -27274,7 +27277,7 @@
         <v>251</v>
       </c>
       <c r="F476">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G476">
         <v>1</v>
@@ -27330,7 +27333,7 @@
         <v>252</v>
       </c>
       <c r="F477">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G477">
         <v>1</v>
@@ -27386,7 +27389,7 @@
         <v>253</v>
       </c>
       <c r="F478">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G478">
         <v>1</v>
@@ -27442,7 +27445,7 @@
         <v>253</v>
       </c>
       <c r="F479">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G479">
         <v>2</v>
@@ -27498,7 +27501,7 @@
         <v>254</v>
       </c>
       <c r="F480">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G480">
         <v>1</v>
@@ -27554,7 +27557,7 @@
         <v>254</v>
       </c>
       <c r="F481">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G481">
         <v>2</v>
@@ -27610,7 +27613,7 @@
         <v>255</v>
       </c>
       <c r="F482">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G482">
         <v>1</v>
@@ -27666,7 +27669,7 @@
         <v>255</v>
       </c>
       <c r="F483">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G483">
         <v>2</v>
@@ -27722,7 +27725,7 @@
         <v>256</v>
       </c>
       <c r="F484">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G484">
         <v>1</v>
@@ -27778,7 +27781,7 @@
         <v>257</v>
       </c>
       <c r="F485">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G485">
         <v>1</v>
@@ -27834,7 +27837,7 @@
         <v>258</v>
       </c>
       <c r="F486">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G486">
         <v>1</v>
@@ -27890,7 +27893,7 @@
         <v>2</v>
       </c>
       <c r="F487">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G487">
         <v>1</v>
@@ -27946,7 +27949,7 @@
         <v>2</v>
       </c>
       <c r="F488">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G488">
         <v>4</v>
@@ -28002,7 +28005,7 @@
         <v>3</v>
       </c>
       <c r="F489">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G489">
         <v>1</v>
@@ -28058,7 +28061,7 @@
         <v>5</v>
       </c>
       <c r="F490">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G490">
         <v>90</v>
@@ -28114,7 +28117,7 @@
         <v>6</v>
       </c>
       <c r="F491">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G491">
         <v>1</v>
@@ -28170,7 +28173,7 @@
         <v>7</v>
       </c>
       <c r="F492">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G492">
         <v>1</v>
@@ -28226,7 +28229,7 @@
         <v>7</v>
       </c>
       <c r="F493">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G493">
         <v>2</v>
@@ -28282,7 +28285,7 @@
         <v>8</v>
       </c>
       <c r="F494">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G494">
         <v>1</v>
@@ -28338,7 +28341,7 @@
         <v>8</v>
       </c>
       <c r="F495">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G495">
         <v>2</v>
@@ -28394,7 +28397,7 @@
         <v>9</v>
       </c>
       <c r="F496">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G496">
         <v>1</v>
@@ -28450,7 +28453,7 @@
         <v>9</v>
       </c>
       <c r="F497">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G497">
         <v>2</v>
@@ -28506,7 +28509,7 @@
         <v>10</v>
       </c>
       <c r="F498">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G498">
         <v>1</v>
@@ -28562,7 +28565,7 @@
         <v>10</v>
       </c>
       <c r="F499">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G499">
         <v>90</v>
@@ -28618,7 +28621,7 @@
         <v>11</v>
       </c>
       <c r="F500">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G500">
         <v>1</v>
@@ -28674,7 +28677,7 @@
         <v>11</v>
       </c>
       <c r="F501">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G501">
         <v>2</v>
@@ -28730,7 +28733,7 @@
         <v>12</v>
       </c>
       <c r="F502">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G502">
         <v>1</v>
@@ -28786,7 +28789,7 @@
         <v>12</v>
       </c>
       <c r="F503">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G503">
         <v>2</v>
@@ -28842,7 +28845,7 @@
         <v>12</v>
       </c>
       <c r="F504">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G504">
         <v>80</v>
@@ -28898,7 +28901,7 @@
         <v>13</v>
       </c>
       <c r="F505">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G505">
         <v>1</v>
@@ -28954,7 +28957,7 @@
         <v>13</v>
       </c>
       <c r="F506">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G506">
         <v>2</v>
@@ -29010,7 +29013,7 @@
         <v>14</v>
       </c>
       <c r="F507">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G507">
         <v>1</v>
@@ -29066,7 +29069,7 @@
         <v>14</v>
       </c>
       <c r="F508">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G508">
         <v>90</v>
@@ -29122,7 +29125,7 @@
         <v>14</v>
       </c>
       <c r="F509">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G509">
         <v>2</v>
@@ -29178,7 +29181,7 @@
         <v>14</v>
       </c>
       <c r="F510">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G510">
         <v>4</v>
@@ -29234,7 +29237,7 @@
         <v>15</v>
       </c>
       <c r="F511">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G511">
         <v>1</v>
@@ -29290,7 +29293,7 @@
         <v>16</v>
       </c>
       <c r="F512">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G512">
         <v>1</v>
@@ -29346,7 +29349,7 @@
         <v>16</v>
       </c>
       <c r="F513">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G513">
         <v>4</v>
@@ -29402,7 +29405,7 @@
         <v>16</v>
       </c>
       <c r="F514">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G514">
         <v>3</v>
@@ -29458,7 +29461,7 @@
         <v>17</v>
       </c>
       <c r="F515">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G515">
         <v>1</v>
@@ -29514,7 +29517,7 @@
         <v>17</v>
       </c>
       <c r="F516">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G516">
         <v>90</v>
@@ -29570,7 +29573,7 @@
         <v>17</v>
       </c>
       <c r="F517">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G517">
         <v>5</v>
@@ -29626,7 +29629,7 @@
         <v>18</v>
       </c>
       <c r="F518">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G518">
         <v>1</v>
@@ -29682,7 +29685,7 @@
         <v>18</v>
       </c>
       <c r="F519">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G519">
         <v>3</v>
@@ -29738,7 +29741,7 @@
         <v>18</v>
       </c>
       <c r="F520">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G520">
         <v>4</v>
@@ -29794,7 +29797,7 @@
         <v>19</v>
       </c>
       <c r="F521">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G521">
         <v>1</v>
@@ -29850,7 +29853,7 @@
         <v>19</v>
       </c>
       <c r="F522">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G522">
         <v>2</v>
@@ -29906,7 +29909,7 @@
         <v>20</v>
       </c>
       <c r="F523">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G523">
         <v>1</v>
@@ -29962,7 +29965,7 @@
         <v>20</v>
       </c>
       <c r="F524">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G524">
         <v>2</v>
@@ -30018,7 +30021,7 @@
         <v>21</v>
       </c>
       <c r="F525">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G525">
         <v>1</v>
@@ -30074,7 +30077,7 @@
         <v>21</v>
       </c>
       <c r="F526">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G526">
         <v>5</v>
@@ -30130,7 +30133,7 @@
         <v>21</v>
       </c>
       <c r="F527">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G527">
         <v>4</v>
@@ -30186,7 +30189,7 @@
         <v>22</v>
       </c>
       <c r="F528">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G528">
         <v>1</v>
@@ -30242,7 +30245,7 @@
         <v>22</v>
       </c>
       <c r="F529">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G529">
         <v>2</v>
@@ -30298,7 +30301,7 @@
         <v>22</v>
       </c>
       <c r="F530">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G530">
         <v>3</v>
@@ -30354,7 +30357,7 @@
         <v>23</v>
       </c>
       <c r="F531">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G531">
         <v>1</v>
@@ -30410,7 +30413,7 @@
         <v>23</v>
       </c>
       <c r="F532">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G532">
         <v>2</v>
@@ -30466,7 +30469,7 @@
         <v>23</v>
       </c>
       <c r="F533">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G533">
         <v>3</v>
@@ -30522,7 +30525,7 @@
         <v>24</v>
       </c>
       <c r="F534">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G534">
         <v>1</v>
@@ -30578,7 +30581,7 @@
         <v>24</v>
       </c>
       <c r="F535">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G535">
         <v>80</v>
@@ -30634,7 +30637,7 @@
         <v>25</v>
       </c>
       <c r="F536">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G536">
         <v>1</v>
@@ -30690,7 +30693,7 @@
         <v>25</v>
       </c>
       <c r="F537">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G537">
         <v>90</v>
@@ -30746,7 +30749,7 @@
         <v>25</v>
       </c>
       <c r="F538">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G538">
         <v>2</v>
@@ -30802,7 +30805,7 @@
         <v>26</v>
       </c>
       <c r="F539">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G539">
         <v>1</v>
@@ -30858,7 +30861,7 @@
         <v>26</v>
       </c>
       <c r="F540">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G540">
         <v>2</v>
@@ -30914,7 +30917,7 @@
         <v>26</v>
       </c>
       <c r="F541">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G541">
         <v>3</v>
@@ -30970,7 +30973,7 @@
         <v>27</v>
       </c>
       <c r="F542">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G542">
         <v>1</v>
@@ -31026,7 +31029,7 @@
         <v>27</v>
       </c>
       <c r="F543">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G543">
         <v>3</v>
@@ -31082,7 +31085,7 @@
         <v>27</v>
       </c>
       <c r="F544">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G544">
         <v>2</v>
@@ -31138,7 +31141,7 @@
         <v>27</v>
       </c>
       <c r="F545">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G545">
         <v>90</v>
@@ -31194,7 +31197,7 @@
         <v>28</v>
       </c>
       <c r="F546">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G546">
         <v>1</v>
@@ -31250,7 +31253,7 @@
         <v>28</v>
       </c>
       <c r="F547">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G547">
         <v>80</v>
@@ -31306,7 +31309,7 @@
         <v>28</v>
       </c>
       <c r="F548">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G548">
         <v>6</v>
@@ -31362,7 +31365,7 @@
         <v>29</v>
       </c>
       <c r="F549">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G549">
         <v>1</v>
@@ -31418,7 +31421,7 @@
         <v>29</v>
       </c>
       <c r="F550">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G550">
         <v>3</v>
@@ -31474,7 +31477,7 @@
         <v>30</v>
       </c>
       <c r="F551">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G551">
         <v>1</v>
@@ -31530,7 +31533,7 @@
         <v>31</v>
       </c>
       <c r="F552">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G552">
         <v>1</v>
@@ -31586,7 +31589,7 @@
         <v>31</v>
       </c>
       <c r="F553">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G553">
         <v>3</v>
@@ -31642,7 +31645,7 @@
         <v>32</v>
       </c>
       <c r="F554">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G554">
         <v>1</v>
@@ -31698,7 +31701,7 @@
         <v>32</v>
       </c>
       <c r="F555">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G555">
         <v>2</v>
@@ -31754,7 +31757,7 @@
         <v>33</v>
       </c>
       <c r="F556">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G556">
         <v>1</v>
@@ -31810,7 +31813,7 @@
         <v>34</v>
       </c>
       <c r="F557">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G557">
         <v>1</v>
@@ -31866,7 +31869,7 @@
         <v>35</v>
       </c>
       <c r="F558">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G558">
         <v>1</v>
@@ -31922,7 +31925,7 @@
         <v>35</v>
       </c>
       <c r="F559">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G559">
         <v>80</v>
@@ -31978,7 +31981,7 @@
         <v>35</v>
       </c>
       <c r="F560">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G560">
         <v>2</v>
@@ -32034,7 +32037,7 @@
         <v>36</v>
       </c>
       <c r="F561">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G561">
         <v>1</v>
@@ -32090,7 +32093,7 @@
         <v>36</v>
       </c>
       <c r="F562">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G562">
         <v>2</v>
@@ -32146,7 +32149,7 @@
         <v>37</v>
       </c>
       <c r="F563">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G563">
         <v>1</v>
@@ -32202,7 +32205,7 @@
         <v>37</v>
       </c>
       <c r="F564">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G564">
         <v>5</v>
@@ -32258,7 +32261,7 @@
         <v>38</v>
       </c>
       <c r="F565">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G565">
         <v>1</v>
@@ -32314,7 +32317,7 @@
         <v>38</v>
       </c>
       <c r="F566">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G566">
         <v>90</v>
@@ -32370,7 +32373,7 @@
         <v>38</v>
       </c>
       <c r="F567">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G567">
         <v>2</v>
@@ -32426,7 +32429,7 @@
         <v>39</v>
       </c>
       <c r="F568">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G568">
         <v>1</v>
@@ -32482,7 +32485,7 @@
         <v>39</v>
       </c>
       <c r="F569">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G569">
         <v>90</v>
@@ -32538,7 +32541,7 @@
         <v>39</v>
       </c>
       <c r="F570">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G570">
         <v>2</v>
@@ -32594,7 +32597,7 @@
         <v>40</v>
       </c>
       <c r="F571">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G571">
         <v>1</v>
@@ -32650,7 +32653,7 @@
         <v>40</v>
       </c>
       <c r="F572">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G572">
         <v>2</v>
@@ -32706,7 +32709,7 @@
         <v>41</v>
       </c>
       <c r="F573">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G573">
         <v>1</v>
@@ -32762,7 +32765,7 @@
         <v>42</v>
       </c>
       <c r="F574">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G574">
         <v>1</v>
@@ -32818,7 +32821,7 @@
         <v>43</v>
       </c>
       <c r="F575">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G575">
         <v>1</v>
@@ -32874,7 +32877,7 @@
         <v>44</v>
       </c>
       <c r="F576">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G576">
         <v>1</v>
@@ -32930,7 +32933,7 @@
         <v>45</v>
       </c>
       <c r="F577">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G577">
         <v>1</v>
@@ -32986,7 +32989,7 @@
         <v>46</v>
       </c>
       <c r="F578">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G578">
         <v>3</v>
@@ -33042,7 +33045,7 @@
         <v>47</v>
       </c>
       <c r="F579">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G579">
         <v>1</v>
@@ -33098,7 +33101,7 @@
         <v>47</v>
       </c>
       <c r="F580">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G580">
         <v>2</v>
@@ -33154,7 +33157,7 @@
         <v>48</v>
       </c>
       <c r="F581">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G581">
         <v>1</v>
@@ -33210,7 +33213,7 @@
         <v>48</v>
       </c>
       <c r="F582">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G582">
         <v>90</v>
@@ -33266,7 +33269,7 @@
         <v>49</v>
       </c>
       <c r="F583">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G583">
         <v>1</v>
@@ -33322,7 +33325,7 @@
         <v>50</v>
       </c>
       <c r="F584">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G584">
         <v>1</v>
@@ -33378,7 +33381,7 @@
         <v>51</v>
       </c>
       <c r="F585">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G585">
         <v>1</v>
@@ -33434,7 +33437,7 @@
         <v>52</v>
       </c>
       <c r="F586">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G586">
         <v>1</v>
@@ -33490,7 +33493,7 @@
         <v>53</v>
       </c>
       <c r="F587">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G587">
         <v>1</v>
@@ -33546,7 +33549,7 @@
         <v>54</v>
       </c>
       <c r="F588">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G588">
         <v>1</v>
@@ -33602,7 +33605,7 @@
         <v>54</v>
       </c>
       <c r="F589">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G589">
         <v>90</v>
@@ -33658,7 +33661,7 @@
         <v>55</v>
       </c>
       <c r="F590">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G590">
         <v>1</v>
@@ -33714,7 +33717,7 @@
         <v>55</v>
       </c>
       <c r="F591">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G591">
         <v>80</v>
@@ -33770,7 +33773,7 @@
         <v>55</v>
       </c>
       <c r="F592">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G592">
         <v>90</v>
@@ -33826,7 +33829,7 @@
         <v>56</v>
       </c>
       <c r="F593">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G593">
         <v>1</v>
@@ -33882,7 +33885,7 @@
         <v>56</v>
       </c>
       <c r="F594">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G594">
         <v>90</v>
@@ -33938,7 +33941,7 @@
         <v>57</v>
       </c>
       <c r="F595">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G595">
         <v>1</v>
@@ -33994,7 +33997,7 @@
         <v>57</v>
       </c>
       <c r="F596">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G596">
         <v>90</v>
@@ -34050,7 +34053,7 @@
         <v>58</v>
       </c>
       <c r="F597">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G597">
         <v>1</v>
@@ -34106,7 +34109,7 @@
         <v>59</v>
       </c>
       <c r="F598">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G598">
         <v>1</v>
@@ -34162,7 +34165,7 @@
         <v>59</v>
       </c>
       <c r="F599">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G599">
         <v>80</v>
@@ -34218,7 +34221,7 @@
         <v>60</v>
       </c>
       <c r="F600">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G600">
         <v>1</v>
@@ -34274,7 +34277,7 @@
         <v>61</v>
       </c>
       <c r="F601">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G601">
         <v>1</v>
@@ -34330,7 +34333,7 @@
         <v>61</v>
       </c>
       <c r="F602">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G602">
         <v>2</v>
@@ -34386,7 +34389,7 @@
         <v>62</v>
       </c>
       <c r="F603">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G603">
         <v>1</v>
@@ -34442,7 +34445,7 @@
         <v>63</v>
       </c>
       <c r="F604">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G604">
         <v>1</v>
@@ -34498,7 +34501,7 @@
         <v>63</v>
       </c>
       <c r="F605">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G605">
         <v>2</v>
@@ -34554,7 +34557,7 @@
         <v>64</v>
       </c>
       <c r="F606">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G606">
         <v>1</v>
@@ -34610,7 +34613,7 @@
         <v>64</v>
       </c>
       <c r="F607">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G607">
         <v>2</v>
@@ -34666,7 +34669,7 @@
         <v>64</v>
       </c>
       <c r="F608">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G608">
         <v>80</v>
@@ -34722,7 +34725,7 @@
         <v>64</v>
       </c>
       <c r="F609">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G609">
         <v>90</v>
@@ -34778,7 +34781,7 @@
         <v>65</v>
       </c>
       <c r="F610">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G610">
         <v>1</v>
@@ -34834,7 +34837,7 @@
         <v>65</v>
       </c>
       <c r="F611">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G611">
         <v>2</v>
@@ -34890,7 +34893,7 @@
         <v>65</v>
       </c>
       <c r="F612">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G612">
         <v>80</v>
@@ -34946,7 +34949,7 @@
         <v>65</v>
       </c>
       <c r="F613">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G613">
         <v>90</v>
@@ -35002,7 +35005,7 @@
         <v>66</v>
       </c>
       <c r="F614">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G614">
         <v>1</v>
@@ -35058,7 +35061,7 @@
         <v>66</v>
       </c>
       <c r="F615">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G615">
         <v>90</v>
@@ -35114,7 +35117,7 @@
         <v>67</v>
       </c>
       <c r="F616">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G616">
         <v>1</v>
@@ -35170,7 +35173,7 @@
         <v>67</v>
       </c>
       <c r="F617">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G617">
         <v>90</v>
@@ -35226,7 +35229,7 @@
         <v>67</v>
       </c>
       <c r="F618">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G618">
         <v>2</v>
@@ -35282,7 +35285,7 @@
         <v>68</v>
       </c>
       <c r="F619">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G619">
         <v>1</v>
@@ -35338,7 +35341,7 @@
         <v>69</v>
       </c>
       <c r="F620">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G620">
         <v>1</v>
@@ -35394,7 +35397,7 @@
         <v>69</v>
       </c>
       <c r="F621">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G621">
         <v>2</v>
@@ -35450,7 +35453,7 @@
         <v>70</v>
       </c>
       <c r="F622">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G622">
         <v>1</v>
@@ -35506,7 +35509,7 @@
         <v>71</v>
       </c>
       <c r="F623">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G623">
         <v>1</v>
@@ -35562,7 +35565,7 @@
         <v>71</v>
       </c>
       <c r="F624">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G624">
         <v>80</v>
@@ -35618,7 +35621,7 @@
         <v>72</v>
       </c>
       <c r="F625">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G625">
         <v>1</v>
@@ -35674,7 +35677,7 @@
         <v>73</v>
       </c>
       <c r="F626">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G626">
         <v>1</v>
@@ -35730,7 +35733,7 @@
         <v>73</v>
       </c>
       <c r="F627">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G627">
         <v>2</v>
@@ -35786,7 +35789,7 @@
         <v>74</v>
       </c>
       <c r="F628">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G628">
         <v>1</v>
@@ -35842,7 +35845,7 @@
         <v>74</v>
       </c>
       <c r="F629">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G629">
         <v>2</v>
@@ -35898,7 +35901,7 @@
         <v>75</v>
       </c>
       <c r="F630">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G630">
         <v>1</v>
@@ -35954,7 +35957,7 @@
         <v>76</v>
       </c>
       <c r="F631">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G631">
         <v>1</v>
@@ -36010,7 +36013,7 @@
         <v>77</v>
       </c>
       <c r="F632">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G632">
         <v>1</v>
@@ -36066,7 +36069,7 @@
         <v>78</v>
       </c>
       <c r="F633">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G633">
         <v>1</v>
@@ -36122,7 +36125,7 @@
         <v>79</v>
       </c>
       <c r="F634">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G634">
         <v>1</v>
@@ -36178,7 +36181,7 @@
         <v>80</v>
       </c>
       <c r="F635">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G635">
         <v>1</v>
@@ -36234,7 +36237,7 @@
         <v>81</v>
       </c>
       <c r="F636">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G636">
         <v>1</v>
@@ -36290,7 +36293,7 @@
         <v>82</v>
       </c>
       <c r="F637">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G637">
         <v>1</v>
@@ -36346,7 +36349,7 @@
         <v>83</v>
       </c>
       <c r="F638">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G638">
         <v>1</v>
@@ -36402,7 +36405,7 @@
         <v>84</v>
       </c>
       <c r="F639">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G639">
         <v>1</v>
@@ -36458,7 +36461,7 @@
         <v>85</v>
       </c>
       <c r="F640">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G640">
         <v>1</v>
@@ -36514,7 +36517,7 @@
         <v>86</v>
       </c>
       <c r="F641">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G641">
         <v>1</v>
@@ -36570,7 +36573,7 @@
         <v>87</v>
       </c>
       <c r="F642">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G642">
         <v>1</v>
@@ -36626,7 +36629,7 @@
         <v>88</v>
       </c>
       <c r="F643">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G643">
         <v>1</v>
@@ -36682,7 +36685,7 @@
         <v>89</v>
       </c>
       <c r="F644">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G644">
         <v>1</v>
@@ -36738,7 +36741,7 @@
         <v>90</v>
       </c>
       <c r="F645">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G645">
         <v>1</v>
@@ -36794,7 +36797,7 @@
         <v>91</v>
       </c>
       <c r="F646">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G646">
         <v>1</v>
@@ -36850,7 +36853,7 @@
         <v>92</v>
       </c>
       <c r="F647">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G647">
         <v>1</v>
@@ -36906,7 +36909,7 @@
         <v>93</v>
       </c>
       <c r="F648">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G648">
         <v>1</v>
@@ -36962,7 +36965,7 @@
         <v>94</v>
       </c>
       <c r="F649">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G649">
         <v>1</v>
@@ -37018,7 +37021,7 @@
         <v>95</v>
       </c>
       <c r="F650">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G650">
         <v>1</v>
@@ -37074,7 +37077,7 @@
         <v>95</v>
       </c>
       <c r="F651">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G651">
         <v>2</v>
@@ -37130,7 +37133,7 @@
         <v>96</v>
       </c>
       <c r="F652">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G652">
         <v>1</v>
@@ -37186,7 +37189,7 @@
         <v>97</v>
       </c>
       <c r="F653">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G653">
         <v>1</v>
@@ -37242,7 +37245,7 @@
         <v>98</v>
       </c>
       <c r="F654">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G654">
         <v>1</v>
@@ -37298,7 +37301,7 @@
         <v>99</v>
       </c>
       <c r="F655">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G655">
         <v>1</v>
@@ -37354,7 +37357,7 @@
         <v>100</v>
       </c>
       <c r="F656">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G656">
         <v>1</v>
@@ -37410,7 +37413,7 @@
         <v>101</v>
       </c>
       <c r="F657">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G657">
         <v>1</v>
@@ -37466,7 +37469,7 @@
         <v>101</v>
       </c>
       <c r="F658">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G658">
         <v>90</v>
@@ -37522,7 +37525,7 @@
         <v>102</v>
       </c>
       <c r="F659">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G659">
         <v>1</v>
@@ -37578,7 +37581,7 @@
         <v>103</v>
       </c>
       <c r="F660">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G660">
         <v>1</v>
@@ -37634,7 +37637,7 @@
         <v>104</v>
       </c>
       <c r="F661">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G661">
         <v>1</v>
@@ -37690,7 +37693,7 @@
         <v>105</v>
       </c>
       <c r="F662">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G662">
         <v>1</v>
@@ -37746,7 +37749,7 @@
         <v>106</v>
       </c>
       <c r="F663">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G663">
         <v>1</v>
@@ -37802,7 +37805,7 @@
         <v>107</v>
       </c>
       <c r="F664">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G664">
         <v>1</v>
@@ -37858,7 +37861,7 @@
         <v>108</v>
       </c>
       <c r="F665">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G665">
         <v>1</v>
@@ -37914,7 +37917,7 @@
         <v>109</v>
       </c>
       <c r="F666">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G666">
         <v>1</v>
@@ -37970,7 +37973,7 @@
         <v>110</v>
       </c>
       <c r="F667">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G667">
         <v>1</v>
@@ -38026,7 +38029,7 @@
         <v>111</v>
       </c>
       <c r="F668">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G668">
         <v>1</v>
@@ -38082,7 +38085,7 @@
         <v>112</v>
       </c>
       <c r="F669">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G669">
         <v>1</v>
@@ -38138,7 +38141,7 @@
         <v>113</v>
       </c>
       <c r="F670">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G670">
         <v>1</v>
@@ -38194,7 +38197,7 @@
         <v>113</v>
       </c>
       <c r="F671">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G671">
         <v>2</v>
@@ -38250,7 +38253,7 @@
         <v>114</v>
       </c>
       <c r="F672">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G672">
         <v>1</v>
@@ -38306,7 +38309,7 @@
         <v>115</v>
       </c>
       <c r="F673">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G673">
         <v>1</v>
@@ -38362,7 +38365,7 @@
         <v>116</v>
       </c>
       <c r="F674">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G674">
         <v>1</v>
@@ -38418,7 +38421,7 @@
         <v>117</v>
       </c>
       <c r="F675">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G675">
         <v>1</v>
@@ -38474,7 +38477,7 @@
         <v>118</v>
       </c>
       <c r="F676">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G676">
         <v>1</v>
@@ -38530,7 +38533,7 @@
         <v>119</v>
       </c>
       <c r="F677">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G677">
         <v>1</v>
@@ -38586,7 +38589,7 @@
         <v>120</v>
       </c>
       <c r="F678">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G678">
         <v>1</v>
@@ -38642,7 +38645,7 @@
         <v>121</v>
       </c>
       <c r="F679">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G679">
         <v>1</v>
@@ -38698,7 +38701,7 @@
         <v>122</v>
       </c>
       <c r="F680">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G680">
         <v>1</v>
@@ -38754,7 +38757,7 @@
         <v>123</v>
       </c>
       <c r="F681">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G681">
         <v>1</v>
@@ -38810,7 +38813,7 @@
         <v>124</v>
       </c>
       <c r="F682">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G682">
         <v>1</v>
@@ -38866,7 +38869,7 @@
         <v>125</v>
       </c>
       <c r="F683">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G683">
         <v>1</v>
@@ -38922,7 +38925,7 @@
         <v>126</v>
       </c>
       <c r="F684">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G684">
         <v>1</v>
@@ -38978,7 +38981,7 @@
         <v>127</v>
       </c>
       <c r="F685">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G685">
         <v>1</v>
@@ -39034,7 +39037,7 @@
         <v>128</v>
       </c>
       <c r="F686">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G686">
         <v>1</v>
@@ -39090,7 +39093,7 @@
         <v>129</v>
       </c>
       <c r="F687">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G687">
         <v>1</v>
@@ -39146,7 +39149,7 @@
         <v>129</v>
       </c>
       <c r="F688">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G688">
         <v>2</v>
@@ -39202,7 +39205,7 @@
         <v>130</v>
       </c>
       <c r="F689">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G689">
         <v>1</v>
@@ -39258,7 +39261,7 @@
         <v>131</v>
       </c>
       <c r="F690">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G690">
         <v>1</v>
@@ -39314,7 +39317,7 @@
         <v>132</v>
       </c>
       <c r="F691">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G691">
         <v>1</v>
@@ -39370,7 +39373,7 @@
         <v>133</v>
       </c>
       <c r="F692">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G692">
         <v>1</v>
@@ -39426,7 +39429,7 @@
         <v>134</v>
       </c>
       <c r="F693">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G693">
         <v>1</v>
@@ -39482,7 +39485,7 @@
         <v>134</v>
       </c>
       <c r="F694">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G694">
         <v>2</v>
@@ -39538,7 +39541,7 @@
         <v>135</v>
       </c>
       <c r="F695">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G695">
         <v>1</v>
@@ -39594,7 +39597,7 @@
         <v>136</v>
       </c>
       <c r="F696">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G696">
         <v>1</v>
@@ -39650,7 +39653,7 @@
         <v>137</v>
       </c>
       <c r="F697">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G697">
         <v>1</v>
@@ -39706,7 +39709,7 @@
         <v>138</v>
       </c>
       <c r="F698">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="G698">
         <v>1</v>
@@ -39762,7 +39765,7 @@
         <v>139</v>
       </c>
       <c r="F699">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G699">
         <v>1</v>
@@ -39818,7 +39821,7 @@
         <v>140</v>
       </c>
       <c r="F700">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G700">
         <v>1</v>
@@ -39874,7 +39877,7 @@
         <v>141</v>
       </c>
       <c r="F701">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G701">
         <v>1</v>
@@ -39930,7 +39933,7 @@
         <v>142</v>
       </c>
       <c r="F702">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G702">
         <v>1</v>
@@ -39986,7 +39989,7 @@
         <v>143</v>
       </c>
       <c r="F703">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G703">
         <v>1</v>
@@ -40042,7 +40045,7 @@
         <v>144</v>
       </c>
       <c r="F704">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G704">
         <v>1</v>
@@ -40098,7 +40101,7 @@
         <v>145</v>
       </c>
       <c r="F705">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G705">
         <v>1</v>
@@ -40154,7 +40157,7 @@
         <v>146</v>
       </c>
       <c r="F706">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G706">
         <v>1</v>
@@ -40210,7 +40213,7 @@
         <v>147</v>
       </c>
       <c r="F707">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G707">
         <v>1</v>
@@ -40266,7 +40269,7 @@
         <v>148</v>
       </c>
       <c r="F708">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="G708">
         <v>1</v>
@@ -40322,7 +40325,7 @@
         <v>149</v>
       </c>
       <c r="F709">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="G709">
         <v>1</v>
@@ -40378,7 +40381,7 @@
         <v>73</v>
       </c>
       <c r="F710">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G710">
         <v>80</v>
@@ -40434,7 +40437,7 @@
         <v>78</v>
       </c>
       <c r="F711">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G711">
         <v>2</v>
@@ -40490,7 +40493,7 @@
         <v>85</v>
       </c>
       <c r="F712">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="G712">
         <v>1</v>
@@ -40546,7 +40549,7 @@
         <v>85</v>
       </c>
       <c r="F713">
-        <v>2006</v>
+        <v>7</v>
       </c>
       <c r="G713">
         <v>1</v>
@@ -40602,7 +40605,7 @@
         <v>85</v>
       </c>
       <c r="F714">
-        <v>2006</v>
+        <v>3</v>
       </c>
       <c r="G714">
         <v>2</v>
@@ -40658,7 +40661,7 @@
         <v>85</v>
       </c>
       <c r="F715">
-        <v>2006</v>
+        <v>10</v>
       </c>
       <c r="G715">
         <v>2</v>
@@ -40714,7 +40717,7 @@
         <v>85</v>
       </c>
       <c r="F716">
-        <v>2006</v>
+        <v>9</v>
       </c>
       <c r="G716">
         <v>2</v>
@@ -40770,7 +40773,7 @@
         <v>85</v>
       </c>
       <c r="F717">
-        <v>2006</v>
+        <v>5</v>
       </c>
       <c r="G717">
         <v>2</v>
@@ -40826,7 +40829,7 @@
         <v>85</v>
       </c>
       <c r="F718">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="G718">
         <v>3</v>
@@ -40882,7 +40885,7 @@
         <v>85</v>
       </c>
       <c r="F719">
-        <v>2006</v>
+        <v>4</v>
       </c>
       <c r="G719">
         <v>3</v>
@@ -40938,7 +40941,7 @@
         <v>85</v>
       </c>
       <c r="F720">
-        <v>2006</v>
+        <v>6</v>
       </c>
       <c r="G720">
         <v>4</v>
@@ -40994,7 +40997,7 @@
         <v>85</v>
       </c>
       <c r="F721">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="G721">
         <v>5</v>
@@ -41050,7 +41053,7 @@
         <v>85</v>
       </c>
       <c r="F722">
-        <v>2006</v>
+        <v>4</v>
       </c>
       <c r="G722">
         <v>5</v>
@@ -41106,7 +41109,7 @@
         <v>85</v>
       </c>
       <c r="F723">
-        <v>2006</v>
+        <v>6</v>
       </c>
       <c r="G723">
         <v>6</v>
@@ -41162,7 +41165,7 @@
         <v>85</v>
       </c>
       <c r="F724">
-        <v>2006</v>
+        <v>9</v>
       </c>
       <c r="G724">
         <v>7</v>
@@ -41218,7 +41221,7 @@
         <v>85</v>
       </c>
       <c r="F725">
-        <v>2006</v>
+        <v>9</v>
       </c>
       <c r="G725">
         <v>80</v>
@@ -41274,7 +41277,7 @@
         <v>85</v>
       </c>
       <c r="F726">
-        <v>2006</v>
+        <v>8</v>
       </c>
       <c r="G726">
         <v>80</v>
@@ -41330,7 +41333,7 @@
         <v>85</v>
       </c>
       <c r="F727">
-        <v>2006</v>
+        <v>8</v>
       </c>
       <c r="G727">
         <v>90</v>
@@ -41386,7 +41389,7 @@
         <v>85</v>
       </c>
       <c r="F728">
-        <v>2006</v>
+        <v>4</v>
       </c>
       <c r="G728">
         <v>90</v>
@@ -41442,7 +41445,7 @@
         <v>85</v>
       </c>
       <c r="F729">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="G729">
         <v>90</v>
@@ -41498,7 +41501,7 @@
         <v>85</v>
       </c>
       <c r="F730">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="G730">
         <v>90</v>
@@ -41554,7 +41557,7 @@
         <v>85</v>
       </c>
       <c r="F731">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="G731">
         <v>90</v>
@@ -41610,7 +41613,7 @@
         <v>85</v>
       </c>
       <c r="F732">
-        <v>2006</v>
+        <v>3</v>
       </c>
       <c r="G732">
         <v>90</v>
@@ -41666,7 +41669,7 @@
         <v>85</v>
       </c>
       <c r="F733">
-        <v>2006</v>
+        <v>3</v>
       </c>
       <c r="G733">
         <v>90</v>
@@ -41722,7 +41725,7 @@
         <v>85</v>
       </c>
       <c r="F734">
-        <v>2006</v>
+        <v>4</v>
       </c>
       <c r="G734">
         <v>90</v>
@@ -41778,7 +41781,7 @@
         <v>85</v>
       </c>
       <c r="F735">
-        <v>2006</v>
+        <v>6</v>
       </c>
       <c r="G735">
         <v>90</v>
@@ -41834,7 +41837,7 @@
         <v>85</v>
       </c>
       <c r="F736">
-        <v>2006</v>
+        <v>9</v>
       </c>
       <c r="G736">
         <v>100</v>
@@ -41890,7 +41893,7 @@
         <v>85</v>
       </c>
       <c r="F737">
-        <v>2006</v>
+        <v>8</v>
       </c>
       <c r="G737">
         <v>100</v>
@@ -41946,7 +41949,7 @@
         <v>85</v>
       </c>
       <c r="F738">
-        <v>2006</v>
+        <v>7</v>
       </c>
       <c r="G738">
         <v>100</v>
@@ -42002,7 +42005,7 @@
         <v>86</v>
       </c>
       <c r="F739">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="G739">
         <v>1</v>
@@ -42058,7 +42061,7 @@
         <v>86</v>
       </c>
       <c r="F740">
-        <v>2005</v>
+        <v>3</v>
       </c>
       <c r="G740">
         <v>1</v>
@@ -42114,10 +42117,10 @@
         <v>86</v>
       </c>
       <c r="F741">
-        <v>2004</v>
+        <v>3</v>
       </c>
       <c r="G741">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H741" t="s">
         <v>56</v>
@@ -42170,7 +42173,7 @@
         <v>86</v>
       </c>
       <c r="F742">
-        <v>2004</v>
+        <v>4</v>
       </c>
       <c r="G742">
         <v>2</v>
@@ -42226,7 +42229,7 @@
         <v>86</v>
       </c>
       <c r="F743">
-        <v>2004</v>
+        <v>4</v>
       </c>
       <c r="G743">
         <v>3</v>
@@ -42282,10 +42285,10 @@
         <v>86</v>
       </c>
       <c r="F744">
-        <v>2004</v>
+        <v>7</v>
       </c>
       <c r="G744">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H744" t="s">
         <v>58</v>
@@ -42338,7 +42341,7 @@
         <v>116</v>
       </c>
       <c r="F745">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G745">
         <v>90</v>
@@ -42394,7 +42397,7 @@
         <v>126</v>
       </c>
       <c r="F746">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G746">
         <v>1</v>
@@ -42450,7 +42453,7 @@
         <v>128</v>
       </c>
       <c r="F747">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G747">
         <v>90</v>
@@ -42506,7 +42509,7 @@
         <v>129</v>
       </c>
       <c r="F748">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G748">
         <v>90</v>
@@ -42562,7 +42565,7 @@
         <v>130</v>
       </c>
       <c r="F749">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G749">
         <v>90</v>
@@ -42618,7 +42621,7 @@
         <v>131</v>
       </c>
       <c r="F750">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="G750">
         <v>90</v>
@@ -42674,7 +42677,7 @@
         <v>161</v>
       </c>
       <c r="F751">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G751">
         <v>2</v>
@@ -42730,7 +42733,7 @@
         <v>162</v>
       </c>
       <c r="F752">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G752">
         <v>90</v>
@@ -42786,7 +42789,7 @@
         <v>229</v>
       </c>
       <c r="F753">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G753">
         <v>90</v>
@@ -42842,7 +42845,7 @@
         <v>234</v>
       </c>
       <c r="F754">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G754">
         <v>2</v>
@@ -42898,7 +42901,7 @@
         <v>2</v>
       </c>
       <c r="F755">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G755">
         <v>3</v>
@@ -42954,7 +42957,7 @@
         <v>5</v>
       </c>
       <c r="F756">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G756">
         <v>1</v>
@@ -43010,7 +43013,7 @@
         <v>6</v>
       </c>
       <c r="F757">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G757">
         <v>90</v>
@@ -43066,7 +43069,7 @@
         <v>7</v>
       </c>
       <c r="F758">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G758">
         <v>80</v>
@@ -43122,7 +43125,7 @@
         <v>7</v>
       </c>
       <c r="F759">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G759">
         <v>90</v>
@@ -43178,7 +43181,7 @@
         <v>8</v>
       </c>
       <c r="F760">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G760">
         <v>80</v>
@@ -43234,7 +43237,7 @@
         <v>8</v>
       </c>
       <c r="F761">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G761">
         <v>90</v>
@@ -43290,7 +43293,7 @@
         <v>15</v>
       </c>
       <c r="F762">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G762">
         <v>90</v>
@@ -43346,7 +43349,7 @@
         <v>16</v>
       </c>
       <c r="F763">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G763">
         <v>5</v>
@@ -43402,7 +43405,7 @@
         <v>16</v>
       </c>
       <c r="F764">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G764">
         <v>90</v>
@@ -43458,7 +43461,7 @@
         <v>18</v>
       </c>
       <c r="F765">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G765">
         <v>90</v>
@@ -43514,7 +43517,7 @@
         <v>22</v>
       </c>
       <c r="F766">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G766">
         <v>90</v>
@@ -43570,7 +43573,7 @@
         <v>29</v>
       </c>
       <c r="F767">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G767">
         <v>2</v>
@@ -43626,7 +43629,7 @@
         <v>31</v>
       </c>
       <c r="F768">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G768">
         <v>90</v>
@@ -43682,7 +43685,7 @@
         <v>32</v>
       </c>
       <c r="F769">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G769">
         <v>90</v>
@@ -43738,7 +43741,7 @@
         <v>43</v>
       </c>
       <c r="F770">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G770">
         <v>90</v>
@@ -43794,7 +43797,7 @@
         <v>44</v>
       </c>
       <c r="F771">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G771">
         <v>90</v>
@@ -43850,7 +43853,7 @@
         <v>60</v>
       </c>
       <c r="F772">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G772">
         <v>80</v>
@@ -43906,7 +43909,7 @@
         <v>62</v>
       </c>
       <c r="F773">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="G773">
         <v>90</v>
@@ -43962,7 +43965,7 @@
         <v>67</v>
       </c>
       <c r="F774">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G774">
         <v>90</v>
@@ -44018,7 +44021,7 @@
         <v>68</v>
       </c>
       <c r="F775">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G775">
         <v>90</v>
@@ -44074,7 +44077,7 @@
         <v>69</v>
       </c>
       <c r="F776">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G776">
         <v>90</v>
@@ -44130,7 +44133,7 @@
         <v>74</v>
       </c>
       <c r="F777">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G777">
         <v>3</v>
@@ -44186,7 +44189,7 @@
         <v>74</v>
       </c>
       <c r="F778">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="G778">
         <v>90</v>
@@ -44242,7 +44245,7 @@
         <v>83</v>
       </c>
       <c r="F779">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G779">
         <v>90</v>
@@ -44298,7 +44301,7 @@
         <v>99</v>
       </c>
       <c r="F780">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G780">
         <v>90</v>
@@ -44338,6 +44341,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
